--- a/docs/StructureDefinition-LTCBundleCMS.xlsx
+++ b/docs/StructureDefinition-LTCBundleCMS.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T23:20:15+08:00</t>
+    <t>2024-10-22T01:35:37+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCBundleCMS.xlsx
+++ b/docs/StructureDefinition-LTCBundleCMS.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>TWLTC Bundle CMS</t>
+    <t>照顧管理評估量表文件打包</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T01:35:37+08:00</t>
+    <t>2024-10-23T00:37:08+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,8 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>照顧管理評估量表
-本 Bundle 以衛生福利部長期照顧管理中心照顧管理評估量表為基礎，用以表述照顧管理評估量表的文件結構。</t>
+    <t>此 Bundle 以衛生福利部長期照顧管理中心照顧管理評估量表為基礎，用以表述照顧管理評估量表的文件打包結構。</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-LTCBundleCMS.xlsx
+++ b/docs/StructureDefinition-LTCBundleCMS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T00:37:08+08:00</t>
+    <t>2024-10-23T02:33:36+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCBundleCMS.xlsx
+++ b/docs/StructureDefinition-LTCBundleCMS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T02:33:36+08:00</t>
+    <t>2025-07-28T13:16:22+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2627,17 +2627,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="69.23828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="30.65625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="28.78515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="60.7578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.23828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="26.921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="24.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="199.58203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="179.2578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2646,26 +2646,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="77.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.65625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.4375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="31.015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="67.23828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.43359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="58.125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="37.16015625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-LTCBundleCMS.xlsx
+++ b/docs/StructureDefinition-LTCBundleCMS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:16:22+08:00</t>
+    <t>2025-07-28T13:45:25+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCBundleCMS.xlsx
+++ b/docs/StructureDefinition-LTCBundleCMS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:45:25+08:00</t>
+    <t>2025-07-28T14:53:50+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCBundleCMS.xlsx
+++ b/docs/StructureDefinition-LTCBundleCMS.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:53:50+08:00</t>
+    <t>2025-08-20T12:47:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MI-TW</t>
+    <t>經濟部產業發展署</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>MI-TW (https://mitw.dicom.org.tw/)</t>
+    <t>經濟部產業發展署 (https://www.ida.gov.tw/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -2627,17 +2627,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.7578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="34.23828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="24.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.44140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="26.28125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="24.67578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="179.2578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="171.10546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2646,26 +2646,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.65625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.4375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="31.015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.5390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="42.01953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.43359375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="58.125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="37.16015625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.1328125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="57.64453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-LTCBundleCMS.xlsx
+++ b/docs/StructureDefinition-LTCBundleCMS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T12:47:30+08:00</t>
+    <t>2025-08-23T17:17:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCBundleCMS.xlsx
+++ b/docs/StructureDefinition-LTCBundleCMS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-23T17:17:30+08:00</t>
+    <t>2025-09-09T02:59:45+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCBundleCMS.xlsx
+++ b/docs/StructureDefinition-LTCBundleCMS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T02:59:45+08:00</t>
+    <t>2025-09-09T04:22:03+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCBundleCMS.xlsx
+++ b/docs/StructureDefinition-LTCBundleCMS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:24:30+08:00</t>
+    <t>2025-09-26T02:27:53+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1005,7 +1005,7 @@
   </si>
   <si>
     <t>Patient {http://ltc-ig.fhir.tw/StructureDefinition/LTCPatientCMS}
-Condition {http://ltc-ig.fhir.tw/StructureDefinition/LTCConditionDisability|http://ltc-ig.fhir.tw/StructureDefinition/LTCConditionDisabilityType|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Condition-twcore}</t>
+Condition {http://ltc-ig.fhir.tw/StructureDefinition/LTCConditionDisability|http://ltc-ig.fhir.tw/StructureDefinition/LTCConditionDisabilityType}</t>
   </si>
   <si>
     <t>接受健康照護服務的個人或動物之資訊</t>
@@ -1122,8 +1122,8 @@
     <t>Bundle.entry:related-person.resource</t>
   </si>
   <si>
-    <t>RelatedPerson {http://ltc-ig.fhir.tw/StructureDefinition/LTCRelatedPerson}
-Condition {http://ltc-ig.fhir.tw/StructureDefinition/LTCConditionDisability}</t>
+    <t xml:space="preserve">RelatedPerson {http://ltc-ig.fhir.tw/StructureDefinition/LTCRelatedPerson}
+</t>
   </si>
   <si>
     <t>A person that is related to a patient, but who is not a direct target of care</t>
@@ -1465,7 +1465,7 @@
     <t>Bundle.entry:questionnaire-adl.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">QuestionnaireResponse {http://ltc-ig.fhir.tw/StructureDefinition/LTCQuestionnaireResponseCMSADL}
+    <t xml:space="preserve">QuestionnaireResponse {http://ltc-ig.fhir.tw/StructureDefinition/LTCQuestionnaireResponseADL}
 </t>
   </si>
   <si>
@@ -1550,7 +1550,7 @@
     <t>questionnaire-iadl</t>
   </si>
   <si>
-    <t>個案獨立生活能力</t>
+    <t>F. 個案工具性日常活動功能量表 (IADLs) 的內容</t>
   </si>
   <si>
     <t>Bundle.entry:questionnaire-iadl.id</t>
@@ -1571,7 +1571,7 @@
     <t>Bundle.entry:questionnaire-iadl.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">QuestionnaireResponse {http://ltc-ig.fhir.tw/StructureDefinition/LTCQuestionnaireResponseCMSIADL}
+    <t xml:space="preserve">QuestionnaireResponse {http://ltc-ig.fhir.tw/StructureDefinition/LTCQuestionnaireResponseIADL}
 </t>
   </si>
   <si>
@@ -2889,7 +2889,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="171.10546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="111.28125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -16321,7 +16321,7 @@
         <v>20</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>354</v>

--- a/docs/StructureDefinition-LTCBundleCMS.xlsx
+++ b/docs/StructureDefinition-LTCBundleCMS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:27:53+08:00</t>
+    <t>2025-09-26T02:46:56+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCBundleCMS.xlsx
+++ b/docs/StructureDefinition-LTCBundleCMS.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$529</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$561</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18898" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20038" uniqueCount="863">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:46:56+08:00</t>
+    <t>2025-09-26T16:12:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2325,11 +2325,11 @@
     <t>Bundle.entry:organization.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Organization {https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Organization-twcore}
+    <t xml:space="preserve">Organization {http://ltc-ig.fhir.tw/StructureDefinition/Organization-twltc}
 </t>
   </si>
   <si>
-    <t>具有共同目的的一群人或機構</t>
+    <t>機構的資訊</t>
   </si>
   <si>
     <t>為實現某種形式的集體行動而形成的正式或非正式認可的一群人或機構的團體。包括公司、機構、企業、部門、社群團體、健康照護實務團體、付款人／保險公司等。</t>
@@ -2414,6 +2414,124 @@
   </si>
   <si>
     <t>Bundle.entry:organization.response.outcome</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner</t>
+  </si>
+  <si>
+    <t>practitioner</t>
+  </si>
+  <si>
+    <t>醫護人員，為了因應 FHIR 結構要求，此項目為選填。</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practitioner {http://ltc-ig.fhir.tw/StructureDefinition/LTCPractitioner}
+</t>
+  </si>
+  <si>
+    <t>對於所提供之健康照護或相關服務負有正式責任的人員</t>
+  </si>
+  <si>
+    <t>直接或間接提供健康照護的人員</t>
+  </si>
+  <si>
+    <t>PRD (as one example)</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitioner.response.outcome</t>
   </si>
   <si>
     <t>Bundle.entry:practitioner-role</t>
@@ -2451,12 +2569,6 @@
   </si>
   <si>
     <t>健康照護服務提供者可能在一個機構內，一段時間內可能承擔的一系列職務角色（Roles）/工作地點（Locations）/專業領域（specialties）/所提供的服務（services）。</t>
-  </si>
-  <si>
-    <t>PRD (as one example)</t>
-  </si>
-  <si>
-    <t>Role</t>
   </si>
   <si>
     <t>Bundle.entry:practitioner-role.search</t>
@@ -2870,7 +2982,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN529"/>
+  <dimension ref="A1:AN561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -59815,7 +59927,7 @@
       </c>
       <c r="E503" s="2"/>
       <c r="F503" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G503" t="s" s="2">
         <v>86</v>
@@ -62749,9 +62861,11 @@
         <v>820</v>
       </c>
       <c r="B529" t="s" s="2">
-        <v>820</v>
-      </c>
-      <c r="C529" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="C529" t="s" s="2">
+        <v>821</v>
+      </c>
       <c r="D529" t="s" s="2">
         <v>20</v>
       </c>
@@ -62763,7 +62877,7 @@
         <v>86</v>
       </c>
       <c r="H529" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I529" t="s" s="2">
         <v>20</v>
@@ -62772,20 +62886,16 @@
         <v>87</v>
       </c>
       <c r="K529" t="s" s="2">
-        <v>821</v>
+        <v>144</v>
       </c>
       <c r="L529" t="s" s="2">
         <v>822</v>
       </c>
       <c r="M529" t="s" s="2">
-        <v>823</v>
-      </c>
-      <c r="N529" t="s" s="2">
-        <v>824</v>
-      </c>
-      <c r="O529" t="s" s="2">
-        <v>825</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N529" s="2"/>
+      <c r="O529" s="2"/>
       <c r="P529" t="s" s="2">
         <v>20</v>
       </c>
@@ -62833,35 +62943,3661 @@
         <v>20</v>
       </c>
       <c r="AF529" t="s" s="2">
-        <v>820</v>
+        <v>174</v>
       </c>
       <c r="AG529" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH529" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI529" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ529" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AK529" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL529" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM529" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN529" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="530" hidden="true">
+      <c r="A530" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="B530" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="C530" s="2"/>
+      <c r="D530" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E530" s="2"/>
+      <c r="F530" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G530" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H530" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I530" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J530" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K530" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L530" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M530" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N530" s="2"/>
+      <c r="O530" s="2"/>
+      <c r="P530" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q530" s="2"/>
+      <c r="R530" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S530" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T530" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U530" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V530" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W530" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X530" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y530" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z530" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA530" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB530" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC530" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD530" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE530" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF530" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG530" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH530" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI530" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ530" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK530" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL530" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AM530" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN530" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="531" hidden="true">
+      <c r="A531" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="B531" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C531" s="2"/>
+      <c r="D531" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="E531" s="2"/>
+      <c r="F531" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H531" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I531" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J531" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K531" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L531" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M531" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N531" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O531" s="2"/>
+      <c r="P531" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q531" s="2"/>
+      <c r="R531" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S531" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T531" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U531" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V531" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W531" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X531" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y531" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z531" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA531" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB531" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC531" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD531" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE531" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF531" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AG531" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH531" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI531" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ531" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AK531" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL531" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AM531" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN531" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="532" hidden="true">
+      <c r="A532" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="B532" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C532" s="2"/>
+      <c r="D532" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="E532" s="2"/>
+      <c r="F532" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G532" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H532" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I532" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J532" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K532" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L532" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M532" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N532" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O532" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="P532" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q532" s="2"/>
+      <c r="R532" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S532" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T532" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U532" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V532" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W532" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X532" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y532" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z532" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA532" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB532" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC532" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD532" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE532" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF532" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AG532" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH532" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI532" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ532" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AK532" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL532" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM532" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN532" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="533" hidden="true">
+      <c r="A533" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="B533" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C533" s="2"/>
+      <c r="D533" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E533" s="2"/>
+      <c r="F533" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G533" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H533" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I533" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J533" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K533" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L533" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M533" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N533" s="2"/>
+      <c r="O533" s="2"/>
+      <c r="P533" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q533" s="2"/>
+      <c r="R533" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S533" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T533" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U533" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V533" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W533" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X533" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y533" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z533" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA533" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB533" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC533" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD533" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE533" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF533" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AG533" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH533" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI533" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ533" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK529" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL529" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM529" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN529" t="s" s="2">
+      <c r="AK533" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL533" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM533" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN533" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="534" hidden="true">
+      <c r="A534" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="B534" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C534" s="2"/>
+      <c r="D534" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E534" s="2"/>
+      <c r="F534" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G534" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H534" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I534" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J534" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K534" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L534" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M534" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N534" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="O534" s="2"/>
+      <c r="P534" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q534" s="2"/>
+      <c r="R534" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S534" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T534" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U534" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V534" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W534" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X534" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y534" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z534" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA534" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB534" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC534" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD534" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE534" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF534" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG534" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH534" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI534" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ534" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK534" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL534" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM534" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN534" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="535" hidden="true">
+      <c r="A535" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="B535" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C535" s="2"/>
+      <c r="D535" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E535" s="2"/>
+      <c r="F535" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G535" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H535" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I535" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J535" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K535" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="L535" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="M535" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="N535" s="2"/>
+      <c r="O535" s="2"/>
+      <c r="P535" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q535" s="2"/>
+      <c r="R535" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S535" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T535" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U535" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V535" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W535" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X535" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y535" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z535" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA535" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB535" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC535" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD535" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE535" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF535" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AG535" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH535" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI535" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ535" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK535" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="AL535" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="AM535" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN535" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="536" hidden="true">
+      <c r="A536" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="B536" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="C536" s="2"/>
+      <c r="D536" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E536" s="2"/>
+      <c r="F536" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G536" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H536" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I536" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J536" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K536" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L536" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M536" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N536" s="2"/>
+      <c r="O536" s="2"/>
+      <c r="P536" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q536" s="2"/>
+      <c r="R536" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S536" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T536" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U536" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V536" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W536" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X536" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y536" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z536" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA536" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB536" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC536" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD536" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE536" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF536" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AG536" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH536" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI536" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AJ536" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK536" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL536" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM536" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN536" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="537" hidden="true">
+      <c r="A537" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="B537" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="C537" s="2"/>
+      <c r="D537" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E537" s="2"/>
+      <c r="F537" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G537" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H537" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I537" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J537" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K537" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L537" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M537" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N537" s="2"/>
+      <c r="O537" s="2"/>
+      <c r="P537" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q537" s="2"/>
+      <c r="R537" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S537" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T537" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U537" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V537" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W537" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X537" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y537" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z537" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA537" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB537" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC537" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD537" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE537" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF537" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG537" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH537" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI537" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ537" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK537" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL537" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AM537" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN537" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="538" hidden="true">
+      <c r="A538" t="s" s="2">
+        <v>834</v>
+      </c>
+      <c r="B538" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C538" s="2"/>
+      <c r="D538" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="E538" s="2"/>
+      <c r="F538" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G538" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H538" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I538" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J538" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K538" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L538" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M538" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N538" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O538" s="2"/>
+      <c r="P538" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q538" s="2"/>
+      <c r="R538" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S538" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T538" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U538" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V538" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W538" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X538" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y538" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z538" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA538" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB538" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC538" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD538" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE538" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF538" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AG538" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH538" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI538" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ538" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AK538" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL538" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AM538" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN538" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="539" hidden="true">
+      <c r="A539" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B539" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C539" s="2"/>
+      <c r="D539" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="E539" s="2"/>
+      <c r="F539" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G539" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H539" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I539" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J539" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K539" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L539" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M539" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N539" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O539" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="P539" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q539" s="2"/>
+      <c r="R539" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S539" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T539" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U539" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V539" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W539" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X539" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y539" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z539" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA539" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB539" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC539" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD539" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE539" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF539" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AG539" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH539" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI539" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ539" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AK539" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL539" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM539" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN539" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="540" hidden="true">
+      <c r="A540" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="B540" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C540" s="2"/>
+      <c r="D540" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E540" s="2"/>
+      <c r="F540" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G540" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H540" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I540" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J540" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K540" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L540" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M540" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N540" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="O540" s="2"/>
+      <c r="P540" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q540" s="2"/>
+      <c r="R540" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S540" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T540" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U540" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V540" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W540" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X540" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="Y540" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Z540" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AA540" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB540" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC540" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD540" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE540" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF540" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AG540" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH540" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI540" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ540" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK540" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL540" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM540" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN540" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="541" hidden="true">
+      <c r="A541" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="B541" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C541" s="2"/>
+      <c r="D541" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E541" s="2"/>
+      <c r="F541" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G541" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H541" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I541" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J541" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K541" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L541" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M541" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N541" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="O541" s="2"/>
+      <c r="P541" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q541" s="2"/>
+      <c r="R541" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S541" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T541" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U541" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V541" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W541" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X541" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y541" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z541" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA541" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB541" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC541" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD541" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE541" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF541" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AG541" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH541" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI541" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ541" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK541" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL541" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM541" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN541" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="542" hidden="true">
+      <c r="A542" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="B542" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="C542" s="2"/>
+      <c r="D542" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E542" s="2"/>
+      <c r="F542" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G542" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H542" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I542" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J542" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K542" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L542" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M542" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N542" s="2"/>
+      <c r="O542" s="2"/>
+      <c r="P542" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q542" s="2"/>
+      <c r="R542" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S542" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T542" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U542" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V542" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W542" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X542" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y542" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z542" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA542" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB542" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC542" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD542" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE542" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF542" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AG542" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH542" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI542" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AJ542" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK542" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL542" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM542" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN542" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="543" hidden="true">
+      <c r="A543" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="B543" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="C543" s="2"/>
+      <c r="D543" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E543" s="2"/>
+      <c r="F543" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G543" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H543" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I543" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J543" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K543" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L543" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M543" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N543" s="2"/>
+      <c r="O543" s="2"/>
+      <c r="P543" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q543" s="2"/>
+      <c r="R543" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S543" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T543" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U543" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V543" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W543" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X543" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y543" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z543" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA543" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB543" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC543" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD543" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE543" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF543" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG543" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH543" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI543" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ543" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK543" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL543" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AM543" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN543" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="544" hidden="true">
+      <c r="A544" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="B544" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C544" s="2"/>
+      <c r="D544" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="E544" s="2"/>
+      <c r="F544" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G544" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H544" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I544" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J544" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K544" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L544" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M544" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N544" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O544" s="2"/>
+      <c r="P544" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q544" s="2"/>
+      <c r="R544" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S544" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T544" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U544" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V544" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W544" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X544" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y544" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z544" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA544" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB544" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC544" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD544" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE544" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF544" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AG544" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH544" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI544" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ544" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AK544" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL544" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AM544" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN544" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="545" hidden="true">
+      <c r="A545" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="B545" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C545" s="2"/>
+      <c r="D545" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="E545" s="2"/>
+      <c r="F545" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G545" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H545" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I545" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J545" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K545" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L545" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M545" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N545" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O545" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="P545" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q545" s="2"/>
+      <c r="R545" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S545" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T545" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U545" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V545" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W545" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X545" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y545" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z545" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA545" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB545" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC545" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD545" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE545" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF545" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AG545" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH545" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI545" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ545" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AK545" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL545" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM545" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN545" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="546" hidden="true">
+      <c r="A546" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="B546" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C546" s="2"/>
+      <c r="D546" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E546" s="2"/>
+      <c r="F546" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G546" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H546" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I546" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J546" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K546" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L546" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M546" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N546" s="2"/>
+      <c r="O546" s="2"/>
+      <c r="P546" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q546" s="2"/>
+      <c r="R546" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S546" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T546" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U546" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V546" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W546" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X546" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="Y546" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="Z546" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AA546" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB546" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC546" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD546" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE546" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF546" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG546" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH546" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI546" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ546" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK546" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL546" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM546" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN546" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="547" hidden="true">
+      <c r="A547" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="B547" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="C547" s="2"/>
+      <c r="D547" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E547" s="2"/>
+      <c r="F547" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G547" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H547" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I547" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J547" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K547" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L547" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M547" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N547" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O547" s="2"/>
+      <c r="P547" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q547" s="2"/>
+      <c r="R547" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S547" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T547" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U547" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V547" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W547" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X547" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y547" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z547" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA547" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB547" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC547" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD547" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE547" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF547" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AG547" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH547" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI547" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ547" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK547" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL547" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM547" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN547" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="548" hidden="true">
+      <c r="A548" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="B548" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C548" s="2"/>
+      <c r="D548" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E548" s="2"/>
+      <c r="F548" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G548" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H548" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I548" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J548" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K548" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L548" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M548" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N548" s="2"/>
+      <c r="O548" s="2"/>
+      <c r="P548" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q548" s="2"/>
+      <c r="R548" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S548" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T548" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U548" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V548" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W548" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X548" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y548" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z548" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA548" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB548" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC548" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD548" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE548" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF548" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AG548" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH548" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI548" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ548" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK548" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL548" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM548" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN548" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="549" hidden="true">
+      <c r="A549" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="B549" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C549" s="2"/>
+      <c r="D549" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E549" s="2"/>
+      <c r="F549" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G549" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H549" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I549" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J549" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K549" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L549" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M549" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N549" s="2"/>
+      <c r="O549" s="2"/>
+      <c r="P549" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q549" s="2"/>
+      <c r="R549" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S549" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T549" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U549" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V549" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W549" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X549" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y549" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z549" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA549" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB549" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC549" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD549" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE549" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF549" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AG549" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH549" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI549" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ549" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK549" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL549" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM549" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN549" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="550" hidden="true">
+      <c r="A550" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="B550" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="C550" s="2"/>
+      <c r="D550" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E550" s="2"/>
+      <c r="F550" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G550" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H550" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I550" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J550" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K550" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L550" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M550" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N550" s="2"/>
+      <c r="O550" s="2"/>
+      <c r="P550" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q550" s="2"/>
+      <c r="R550" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S550" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T550" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U550" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V550" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W550" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X550" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y550" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z550" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA550" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB550" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC550" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD550" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE550" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF550" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AG550" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH550" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI550" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ550" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK550" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL550" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM550" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN550" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="551" hidden="true">
+      <c r="A551" t="s" s="2">
+        <v>847</v>
+      </c>
+      <c r="B551" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="C551" s="2"/>
+      <c r="D551" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E551" s="2"/>
+      <c r="F551" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G551" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H551" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I551" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J551" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K551" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L551" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M551" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N551" s="2"/>
+      <c r="O551" s="2"/>
+      <c r="P551" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q551" s="2"/>
+      <c r="R551" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S551" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T551" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U551" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V551" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W551" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X551" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y551" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z551" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA551" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB551" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC551" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD551" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE551" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF551" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AG551" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH551" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI551" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ551" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK551" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL551" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM551" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN551" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="552" hidden="true">
+      <c r="A552" t="s" s="2">
+        <v>848</v>
+      </c>
+      <c r="B552" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="C552" s="2"/>
+      <c r="D552" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E552" s="2"/>
+      <c r="F552" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G552" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H552" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I552" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J552" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K552" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L552" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M552" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N552" s="2"/>
+      <c r="O552" s="2"/>
+      <c r="P552" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q552" s="2"/>
+      <c r="R552" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S552" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T552" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U552" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V552" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W552" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X552" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y552" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z552" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA552" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB552" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC552" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD552" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE552" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF552" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AG552" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH552" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI552" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AJ552" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK552" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL552" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM552" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN552" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="553" hidden="true">
+      <c r="A553" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="B553" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="C553" s="2"/>
+      <c r="D553" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E553" s="2"/>
+      <c r="F553" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G553" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H553" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I553" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J553" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K553" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L553" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M553" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N553" s="2"/>
+      <c r="O553" s="2"/>
+      <c r="P553" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q553" s="2"/>
+      <c r="R553" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S553" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T553" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U553" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V553" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W553" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X553" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y553" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z553" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA553" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB553" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC553" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD553" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE553" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF553" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG553" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH553" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI553" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ553" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK553" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL553" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AM553" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN553" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="554" hidden="true">
+      <c r="A554" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="B554" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="C554" s="2"/>
+      <c r="D554" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="E554" s="2"/>
+      <c r="F554" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G554" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H554" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I554" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J554" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K554" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L554" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M554" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N554" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O554" s="2"/>
+      <c r="P554" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q554" s="2"/>
+      <c r="R554" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S554" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T554" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U554" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V554" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W554" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X554" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y554" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z554" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA554" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB554" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC554" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD554" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE554" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF554" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AG554" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH554" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI554" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ554" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AK554" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL554" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AM554" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN554" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="555" hidden="true">
+      <c r="A555" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="B555" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C555" s="2"/>
+      <c r="D555" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="E555" s="2"/>
+      <c r="F555" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G555" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H555" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I555" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J555" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K555" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L555" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M555" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N555" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O555" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="P555" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q555" s="2"/>
+      <c r="R555" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S555" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T555" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U555" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V555" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W555" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X555" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y555" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z555" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA555" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB555" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC555" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD555" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE555" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF555" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AG555" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH555" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI555" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ555" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AK555" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL555" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM555" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN555" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="556" hidden="true">
+      <c r="A556" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="B556" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C556" s="2"/>
+      <c r="D556" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E556" s="2"/>
+      <c r="F556" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G556" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H556" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I556" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J556" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K556" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L556" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M556" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N556" s="2"/>
+      <c r="O556" s="2"/>
+      <c r="P556" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q556" s="2"/>
+      <c r="R556" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S556" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T556" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U556" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V556" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W556" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X556" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y556" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z556" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA556" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB556" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC556" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD556" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE556" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF556" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AG556" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH556" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI556" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ556" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK556" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL556" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM556" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN556" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="557" hidden="true">
+      <c r="A557" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="B557" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="C557" s="2"/>
+      <c r="D557" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E557" s="2"/>
+      <c r="F557" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G557" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H557" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I557" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J557" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K557" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L557" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M557" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N557" s="2"/>
+      <c r="O557" s="2"/>
+      <c r="P557" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q557" s="2"/>
+      <c r="R557" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S557" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T557" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U557" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V557" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W557" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X557" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y557" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z557" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA557" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB557" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC557" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD557" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE557" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF557" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AG557" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH557" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI557" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ557" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK557" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL557" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM557" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN557" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="558" hidden="true">
+      <c r="A558" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="B558" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="C558" s="2"/>
+      <c r="D558" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E558" s="2"/>
+      <c r="F558" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G558" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H558" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I558" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J558" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K558" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L558" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M558" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N558" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O558" s="2"/>
+      <c r="P558" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q558" s="2"/>
+      <c r="R558" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S558" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T558" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U558" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V558" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W558" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X558" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y558" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z558" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA558" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB558" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC558" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD558" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE558" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF558" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AG558" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH558" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI558" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ558" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK558" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL558" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM558" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN558" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="559" hidden="true">
+      <c r="A559" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="B559" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="C559" s="2"/>
+      <c r="D559" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E559" s="2"/>
+      <c r="F559" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G559" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H559" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I559" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J559" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K559" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L559" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M559" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="N559" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="O559" s="2"/>
+      <c r="P559" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q559" s="2"/>
+      <c r="R559" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S559" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T559" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U559" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V559" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W559" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X559" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y559" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z559" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA559" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB559" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC559" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD559" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE559" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF559" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AG559" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH559" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI559" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ559" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK559" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL559" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM559" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN559" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="560" hidden="true">
+      <c r="A560" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="B560" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="C560" s="2"/>
+      <c r="D560" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E560" s="2"/>
+      <c r="F560" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G560" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H560" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I560" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J560" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K560" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L560" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M560" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N560" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O560" s="2"/>
+      <c r="P560" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q560" s="2"/>
+      <c r="R560" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S560" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T560" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U560" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V560" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W560" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X560" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y560" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z560" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA560" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB560" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC560" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD560" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE560" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF560" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AG560" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH560" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI560" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ560" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK560" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL560" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM560" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN560" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="561" hidden="true">
+      <c r="A561" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="B561" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="C561" s="2"/>
+      <c r="D561" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E561" s="2"/>
+      <c r="F561" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G561" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H561" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I561" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J561" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K561" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="L561" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="M561" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="N561" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="O561" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="P561" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q561" s="2"/>
+      <c r="R561" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S561" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T561" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U561" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V561" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W561" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X561" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y561" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z561" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA561" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB561" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC561" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD561" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE561" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF561" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="AG561" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH561" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI561" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ561" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK561" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL561" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM561" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN561" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN529">
+  <autoFilter ref="A1:AN561">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -62871,7 +66607,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI528">
+  <conditionalFormatting sqref="A2:AI560">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
